--- a/data/trans_camb/P16A04-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P16A04-Dificultad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>0.5063896179829386</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>3.070828471158613</v>
+        <v>3.070828471158614</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.5216728683126743</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.272343058801264</v>
+        <v>-1.446683290128721</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.075765851031408</v>
+        <v>-1.03706060847308</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.5014002583476569</v>
+        <v>-0.2457107876606072</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.7719657396510251</v>
+        <v>-0.7415032957677117</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.9340475305188904</v>
+        <v>-1.041024149296279</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.425575080291061</v>
+        <v>1.272311640282747</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.5439432183973103</v>
+        <v>-0.6667437459532262</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.6344231356815767</v>
+        <v>-0.5500939989931026</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.087492392718225</v>
+        <v>1.177483347695024</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.873349856543016</v>
+        <v>1.862050821588554</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.987731732216521</v>
+        <v>2.107081469216649</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.922599714018465</v>
+        <v>4.379607064403833</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.336219572837253</v>
+        <v>2.434124344015888</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.797507855771695</v>
+        <v>1.785476946155293</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.102913994069488</v>
+        <v>5.051534376631508</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.534186004902892</v>
+        <v>1.597830342288296</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.478115490599069</v>
+        <v>1.538327634096937</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.978305789443813</v>
+        <v>3.969668163652955</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.410067840655586</v>
+        <v>-0.4552058314682426</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3449466771685432</v>
+        <v>-0.3500344430026267</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2032557878990673</v>
+        <v>-0.1446560238736337</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2234076220378922</v>
+        <v>-0.2371754954404664</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2888699055433148</v>
+        <v>-0.3024104204875351</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4064397858608955</v>
+        <v>0.3306321065589746</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2026564944880439</v>
+        <v>-0.2224886600025808</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2151050187284369</v>
+        <v>-0.1830816030942279</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.3577802070787707</v>
+        <v>0.374429903749064</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.387511200252097</v>
+        <v>1.43170475420219</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.460999834151407</v>
+        <v>1.590626648477455</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.941167514725301</v>
+        <v>2.663943340535394</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.268518811498668</v>
+        <v>1.283329405218014</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9879307870328758</v>
+        <v>0.9670451404855999</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.637868959243007</v>
+        <v>2.631423906785862</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.830703733265039</v>
+        <v>0.8884135547243364</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7997522643092712</v>
+        <v>0.8896955964274432</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.139006818021572</v>
+        <v>1.941402135882537</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-0.5425302958311867</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.6692476872449462</v>
+        <v>0.6692476872449459</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.6413033936373627</v>
+        <v>-0.7310511319381434</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.045497837242342</v>
+        <v>-2.127587352221273</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.325096218798357</v>
+        <v>-1.362885332808185</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.3491586101192267</v>
+        <v>-0.2881602256836354</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.372396275852449</v>
+        <v>-1.323783990825627</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.161805376586199</v>
+        <v>-0.001154956583655178</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.1184520015288489</v>
+        <v>-0.1484968736470048</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.395571677444006</v>
+        <v>-1.441422746980491</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.2029056290629033</v>
+        <v>-0.2399993764522437</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.202157907815663</v>
+        <v>2.457345760696484</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3212610721102281</v>
+        <v>0.1863375421707064</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.340173204558768</v>
+        <v>1.328400687281234</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.183061896945405</v>
+        <v>2.188550922581974</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.067350479985521</v>
+        <v>1.022288343654856</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.694156274975295</v>
+        <v>2.52173299324945</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.792336363088814</v>
+        <v>1.891803353451824</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3117005106297129</v>
+        <v>0.216224091516191</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.696900136878763</v>
+        <v>1.587108931021023</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.2730530171765455</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.3368293008608664</v>
+        <v>0.3368293008608663</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.265774019107111</v>
+        <v>-0.2833383117436128</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7342460465614575</v>
+        <v>-0.7534837511028516</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.478534464127079</v>
+        <v>-0.513140962610887</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1701825950937668</v>
+        <v>-0.1527652913459571</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5851537550258605</v>
+        <v>-0.585156545632046</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0009986469129576185</v>
+        <v>-0.01385264340186696</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.05812385799393858</v>
+        <v>-0.07100749413621384</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5713080362151043</v>
+        <v>-0.5819540230331181</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.09780955280996741</v>
+        <v>-0.1184777983132589</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.316470559884478</v>
+        <v>1.547917623851757</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2595336690719434</v>
+        <v>0.2036389801485957</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.9316141218712075</v>
+        <v>0.8431981769801824</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.661830046442224</v>
+        <v>1.582751376146165</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8407331335130293</v>
+        <v>0.8817387581686082</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.305190766184066</v>
+        <v>2.134553927754924</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.119011414231053</v>
+        <v>1.187641532140194</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2172005987018065</v>
+        <v>0.1478699120943125</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.085460570413315</v>
+        <v>1.011212757838338</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.5977847180172453</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9978733467970338</v>
+        <v>0.9978733467970341</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.18799574206716</v>
@@ -1092,7 +1092,7 @@
         <v>0.2140065289921417</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.1926722843724353</v>
+        <v>0.1926722843724357</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.038502506313541</v>
+        <v>1.047665822503529</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.5312415337164844</v>
+        <v>-0.5316407670788255</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.2468210511310175</v>
+        <v>-0.2029657310692423</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.447480369180365</v>
+        <v>-1.466081844820873</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.696806859864798</v>
+        <v>-1.526501253391085</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.89203047119021</v>
+        <v>-1.857201678718752</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2181016553051685</v>
+        <v>0.1717971533585149</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.6232121510232251</v>
+        <v>-0.7904909257557817</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.6093705698626292</v>
+        <v>-0.6450106934019019</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.039196453548891</v>
+        <v>4.03543791940437</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.787420914009091</v>
+        <v>1.827557790095478</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.411305734039513</v>
+        <v>2.465141990323142</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.246092904298498</v>
+        <v>1.206821815117997</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.311909408223175</v>
+        <v>1.342628318326047</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3411291123596529</v>
+        <v>0.5081201100057472</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.362695432216494</v>
+        <v>2.228833396106999</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.167040677571517</v>
+        <v>1.129776467917426</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.055870070844044</v>
+        <v>1.13941228595784</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.469717146645581</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.7840920101233787</v>
+        <v>0.784092010123379</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.08319691823046846</v>
@@ -1197,7 +1197,7 @@
         <v>0.1232335678638144</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.1109484516360644</v>
+        <v>0.1109484516360646</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.4813267059964055</v>
+        <v>0.4240778161629263</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.352543368160975</v>
+        <v>-0.3550380429402632</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2174374386888727</v>
+        <v>-0.1786558160344684</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5038823670901261</v>
+        <v>-0.5160479640779659</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5989502986437831</v>
+        <v>-0.5627965315993717</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6201494247590507</v>
+        <v>-0.629062800899499</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08875060765144352</v>
+        <v>0.07057721044698649</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3055980240555626</v>
+        <v>-0.3590091382244197</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2978239719398311</v>
+        <v>-0.299799610675013</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>4.777057859653122</v>
+        <v>5.02464667421033</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.075911129573971</v>
+        <v>2.307527205528972</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.965664481386323</v>
+        <v>2.909342232155421</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.779723363100978</v>
+        <v>0.7837762565766974</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.8243727406588247</v>
+        <v>0.8724389732462341</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2514673390637054</v>
+        <v>0.3242582297837055</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.727345971657104</v>
+        <v>1.700254801919558</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.8723466740813949</v>
+        <v>0.792197186930093</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.7442657664185648</v>
+        <v>0.8980534770426722</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.1683400548467086</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1866906497399585</v>
+        <v>0.1866906497399588</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1.947279061668412</v>
@@ -1297,7 +1297,7 @@
         <v>0.3194428862410531</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>2.134980226921824</v>
+        <v>2.134980226921825</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.9723594919022707</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.687492408934586</v>
+        <v>-1.825349558745331</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.702400111885331</v>
+        <v>-1.581576358943051</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.548753935206315</v>
+        <v>-1.541238968123217</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.2090361905997228</v>
+        <v>-0.2018463285197288</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.557484737215869</v>
+        <v>-1.360591552924273</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1275492774330178</v>
+        <v>0.4734078451434144</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.5440263038366637</v>
+        <v>-0.4524758711548799</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.9319280036000213</v>
+        <v>-1.011585983050716</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.1526879588525251</v>
+        <v>-0.06289477817443252</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.197277601442952</v>
+        <v>2.312947900453993</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.943994221507495</v>
+        <v>1.931921640364594</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.399555616005122</v>
+        <v>1.568298349723906</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.296127663793066</v>
+        <v>4.2551763341821</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.08484100137589</v>
+        <v>2.187580658120187</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.664812261532043</v>
+        <v>3.672917944369495</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.333019120972551</v>
+        <v>2.574704105136524</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.423756244027146</v>
+        <v>1.605160434163189</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.225829457299541</v>
+        <v>2.247182437323909</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.1018912785110318</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.1129983532759406</v>
+        <v>0.1129983532759408</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>1.215979545813137</v>
@@ -1411,7 +1411,7 @@
         <v>0.1469900725773983</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.6892110097442133</v>
+        <v>0.6892110097442131</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.7218986157524813</v>
+        <v>-0.7616758765072333</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6596614407313561</v>
+        <v>-0.6241016656985696</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5768485499617242</v>
+        <v>-0.5430887489575136</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2538356188021967</v>
+        <v>-0.2159354830304358</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6828455324283651</v>
+        <v>-0.6096769209984516</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.01155801965514241</v>
+        <v>0.1156282564041944</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2924532298382957</v>
+        <v>-0.2739848891821873</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4436786270963575</v>
+        <v>-0.4528405867533275</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.08620450665663035</v>
+        <v>-0.0433129989617061</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.90416613606525</v>
+        <v>2.893831193859146</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.420862649021301</v>
+        <v>2.698699554029962</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.781751296166345</v>
+        <v>2.366744083830014</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>5.32617469459768</v>
+        <v>5.023390828929738</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>3.02968794046224</v>
+        <v>3.193469250333721</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>5.305596481494377</v>
+        <v>5.487606077614011</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.204490956161858</v>
+        <v>2.526788520262372</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.589877151285034</v>
+        <v>1.717457821280764</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.26360236868027</v>
+        <v>2.318657775833707</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>0.1338812381200826</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>1.141933190554213</v>
+        <v>1.141933190554214</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.8942405059832511</v>
@@ -1520,7 +1520,7 @@
         <v>0.1697321867286498</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.8560793276071479</v>
+        <v>0.8560793276071489</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.3412095245520144</v>
+        <v>0.3172443952711032</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.456705930381522</v>
+        <v>-0.4704887968828413</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.1322103463134931</v>
+        <v>-0.1511597120350129</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.0582806225326877</v>
+        <v>-0.02773240308931595</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.6059382602012834</v>
+        <v>-0.5759066068044891</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.416376511246378</v>
+        <v>0.3545553938872707</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.4060061602726133</v>
+        <v>0.3221581858095734</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.3266886748987842</v>
+        <v>-0.3425899845108404</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.4055896746205243</v>
+        <v>0.3571122266396418</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.894858557590728</v>
+        <v>1.875991278664352</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.8813409336502884</v>
+        <v>0.9504758254776832</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.265750967544146</v>
+        <v>1.296083931573849</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.510642234746602</v>
+        <v>1.515672507192056</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.8191514573185066</v>
+        <v>0.9033575355282943</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.836978742151839</v>
+        <v>1.806358398347634</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.458840191346819</v>
+        <v>1.450888303924004</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.6465129672739376</v>
+        <v>0.6696581995628638</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.355328151995777</v>
+        <v>1.394624070232087</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.06275372540475389</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.535254699439953</v>
+        <v>0.5352546994399533</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.4550735737169877</v>
@@ -1625,7 +1625,7 @@
         <v>0.08637568112001004</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.4356535813271664</v>
+        <v>0.4356535813271669</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1486155224698496</v>
+        <v>0.1386496818737137</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2173870297595656</v>
+        <v>-0.227503912184141</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.06542220370425467</v>
+        <v>-0.07986071660180413</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.02164474552333944</v>
+        <v>-0.01166007718485172</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2492477681908329</v>
+        <v>-0.2286324078234744</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1459095661360892</v>
+        <v>0.1298007745660893</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.175818032125805</v>
+        <v>0.1373820981954199</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1506010823022765</v>
+        <v>-0.1612763929900339</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.1634614194555053</v>
+        <v>0.164105020651817</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.270234284221283</v>
+        <v>1.325480385232857</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5871743685612021</v>
+        <v>0.6570133263819882</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.9035758880168681</v>
+        <v>0.8575343301940302</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.8575483019849551</v>
+        <v>0.8282026809457251</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.4686293334224912</v>
+        <v>0.5185785168249621</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.038184302805668</v>
+        <v>1.017497993400346</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.8155192271104443</v>
+        <v>0.8324763333888786</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.3671332541281627</v>
+        <v>0.3802470816808319</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.7860123861097763</v>
+        <v>0.8193761653108858</v>
       </c>
     </row>
     <row r="34">
